--- a/Tableros/datos.xlsx
+++ b/Tableros/datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\unal\Computacion grafica\Projecto cajas\Modelado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\Computacion Grafica\main\Tableros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3F42C4-B780-4CB4-B8E8-343C7F3EF03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F510B55-BD57-41B2-AFCA-55DA7C969FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="1320" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9132" yWindow="912" windowWidth="12624" windowHeight="11448" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -387,46 +387,46 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2750</v>
+        <v>2050</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -437,7 +437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -448,7 +448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -459,7 +459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -470,29 +470,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>

--- a/Tableros/datos.xlsx
+++ b/Tableros/datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\Computacion Grafica\main\Tableros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F510B55-BD57-41B2-AFCA-55DA7C969FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597C960B-47B8-4DD8-8213-CE36937C5C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9132" yWindow="912" windowWidth="12624" windowHeight="11448" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10176" yWindow="912" windowWidth="12624" windowHeight="11448" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -398,7 +398,7 @@
         <v>3</v>
       </c>
       <c r="B1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -409,7 +409,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2050</v>
+        <v>2550</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -420,7 +420,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -442,7 +442,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -453,7 +453,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -475,7 +475,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -486,7 +486,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
